--- a/npo_lab02/npo_lab02.xlsx
+++ b/npo_lab02/npo_lab02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Uni\5_sem\NPO\NPO_labs\npo_lab02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C82FDE4-18E6-4B1A-8151-D5BC6BE8653F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2372E5EB-9E6F-4DD8-A590-B33138194C42}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11148" windowHeight="5712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,9 +108,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>Chistyakova</t>
-  </si>
-  <si>
     <t xml:space="preserve">Win10, Goggle Chrome, https://belavia.by </t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>Наличие спец. символов в статьях по поиску Гродно</t>
+  </si>
+  <si>
+    <t>Чистякова Юлия Александровна</t>
   </si>
 </sst>
 </file>
@@ -432,97 +432,97 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1072,8 +1072,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:EB84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60:N60"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1086,487 +1086,487 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="39"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+      <c r="B2" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
+      <c r="B3" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="31"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="31"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="37"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="33"/>
+      <c r="B6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
+      <c r="B7" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="39"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="36"/>
+      <c r="B8" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="32"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="14"/>
+      <c r="B9" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
+      <c r="B10" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="20"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="14"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="20"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="14"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="20"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="14"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="20"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="28"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="23"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="17"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="20"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="23"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="17"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="17"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="11"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="20"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="14"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="20"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="14"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="23"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="17"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="20"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="20"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="14"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="20"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="14"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="20"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="14"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="20"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="14"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="23"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="17"/>
     </row>
     <row r="28" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
@@ -1575,487 +1575,487 @@
       <c r="A29" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="39"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="26"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
+      <c r="B30" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
+      <c r="B31" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="31"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="37"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="31"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="37"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="33"/>
+      <c r="B34" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="29"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="11"/>
+      <c r="B35" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="39"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="36"/>
+      <c r="B36" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="32"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
-      <c r="B37" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="14"/>
+      <c r="B37" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="20"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
-      <c r="B38" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="14"/>
+      <c r="B38" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="20"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="14"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="20"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="14"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="20"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="14"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="20"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="8"/>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="28"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="23"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="17"/>
+      <c r="B43" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="11"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="20"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="14"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="23"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="17"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="17"/>
+      <c r="B46" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="11"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="20"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="14"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="20"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="14"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="8"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="23"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="17"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="20"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="14"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="20"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="14"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="20"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="14"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="20"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="14"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="20"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="14"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="8"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="23"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="17"/>
     </row>
     <row r="56" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
@@ -2064,493 +2064,528 @@
       <c r="A57" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38"/>
-      <c r="K57" s="38"/>
-      <c r="L57" s="38"/>
-      <c r="M57" s="38"/>
-      <c r="N57" s="39"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="26"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24"/>
+      <c r="B58" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="24"/>
+      <c r="B59" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="33"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="31"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="36"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="37"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="31"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="37"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="32"/>
-      <c r="M62" s="32"/>
-      <c r="N62" s="33"/>
+      <c r="B62" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="29"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B63" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="11"/>
+      <c r="B63" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+      <c r="J63" s="38"/>
+      <c r="K63" s="38"/>
+      <c r="L63" s="38"/>
+      <c r="M63" s="38"/>
+      <c r="N63" s="39"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="36"/>
+      <c r="B64" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="32"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
-      <c r="B65" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="14"/>
+      <c r="B65" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="20"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="14"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="19"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="20"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="14"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="20"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C68" s="13"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="14"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="20"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="13"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="14"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="20"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="8"/>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="27"/>
-      <c r="N70" s="28"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="23"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B71" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="17"/>
+      <c r="B71" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="11"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="20"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="14"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="23"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="17"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="17"/>
+      <c r="B74" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="11"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="19"/>
-      <c r="N75" s="20"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="14"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="19"/>
-      <c r="M76" s="19"/>
-      <c r="N76" s="20"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="14"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="8"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="22"/>
-      <c r="L77" s="22"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="23"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="17"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="19"/>
-      <c r="M78" s="19"/>
-      <c r="N78" s="20"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="14"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="19"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
-      <c r="N79" s="20"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="13"/>
+      <c r="F79" s="13"/>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="14"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
-      <c r="F80" s="19"/>
-      <c r="G80" s="19"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="19"/>
-      <c r="M80" s="19"/>
-      <c r="N80" s="20"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="13"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="14"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="19"/>
-      <c r="G81" s="19"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="19"/>
-      <c r="M81" s="19"/>
-      <c r="N81" s="20"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="14"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="19"/>
-      <c r="M82" s="19"/>
-      <c r="N82" s="20"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="14"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="8"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="22"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="23"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="17"/>
     </row>
     <row r="84" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="B35:N35"/>
+    <mergeCell ref="B63:N63"/>
+    <mergeCell ref="B66:N66"/>
+    <mergeCell ref="B67:N67"/>
+    <mergeCell ref="B68:N68"/>
+    <mergeCell ref="B43:N45"/>
+    <mergeCell ref="B46:N49"/>
+    <mergeCell ref="B50:N55"/>
+    <mergeCell ref="B58:N58"/>
+    <mergeCell ref="B59:N59"/>
+    <mergeCell ref="B69:N69"/>
+    <mergeCell ref="B70:N70"/>
+    <mergeCell ref="B60:N60"/>
+    <mergeCell ref="B61:N61"/>
+    <mergeCell ref="B62:N62"/>
+    <mergeCell ref="B64:N64"/>
+    <mergeCell ref="B65:N65"/>
+    <mergeCell ref="B10:N10"/>
+    <mergeCell ref="B4:N4"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="B33:N33"/>
+    <mergeCell ref="B15:N17"/>
+    <mergeCell ref="B18:N21"/>
+    <mergeCell ref="B22:N27"/>
+    <mergeCell ref="B29:N29"/>
+    <mergeCell ref="B30:N30"/>
+    <mergeCell ref="B31:N31"/>
+    <mergeCell ref="B32:N32"/>
+    <mergeCell ref="B7:N7"/>
+    <mergeCell ref="B1:N1"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:N3"/>
+    <mergeCell ref="B8:N8"/>
+    <mergeCell ref="B9:N9"/>
     <mergeCell ref="B71:N73"/>
     <mergeCell ref="B74:N77"/>
     <mergeCell ref="B78:N83"/>
@@ -2567,41 +2602,6 @@
     <mergeCell ref="B40:N40"/>
     <mergeCell ref="B41:N41"/>
     <mergeCell ref="B42:N42"/>
-    <mergeCell ref="B1:N1"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:N3"/>
-    <mergeCell ref="B8:N8"/>
-    <mergeCell ref="B9:N9"/>
-    <mergeCell ref="B10:N10"/>
-    <mergeCell ref="B4:N4"/>
-    <mergeCell ref="B5:N5"/>
-    <mergeCell ref="B6:N6"/>
-    <mergeCell ref="B33:N33"/>
-    <mergeCell ref="B15:N17"/>
-    <mergeCell ref="B18:N21"/>
-    <mergeCell ref="B22:N27"/>
-    <mergeCell ref="B29:N29"/>
-    <mergeCell ref="B30:N30"/>
-    <mergeCell ref="B31:N31"/>
-    <mergeCell ref="B32:N32"/>
-    <mergeCell ref="B7:N7"/>
-    <mergeCell ref="B69:N69"/>
-    <mergeCell ref="B70:N70"/>
-    <mergeCell ref="B60:N60"/>
-    <mergeCell ref="B61:N61"/>
-    <mergeCell ref="B62:N62"/>
-    <mergeCell ref="B64:N64"/>
-    <mergeCell ref="B65:N65"/>
-    <mergeCell ref="B35:N35"/>
-    <mergeCell ref="B63:N63"/>
-    <mergeCell ref="B66:N66"/>
-    <mergeCell ref="B67:N67"/>
-    <mergeCell ref="B68:N68"/>
-    <mergeCell ref="B43:N45"/>
-    <mergeCell ref="B46:N49"/>
-    <mergeCell ref="B50:N55"/>
-    <mergeCell ref="B58:N58"/>
-    <mergeCell ref="B59:N59"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:N4 B32:N32 B60:N60" xr:uid="{00000000-0002-0000-0000-000000000000}">
